--- a/posts/youth-climate/youth-climate.xlsx
+++ b/posts/youth-climate/youth-climate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-factsheets/posts/youth-climate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/youth-climate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340CD565-E630-474B-9BBB-0D59AF12F24D}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9201048-EC84-4B93-8A4E-B189456C3B4F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="105" windowWidth="14610" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,75 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>CITATION METADATA</t>
   </si>
   <si>
-    <t xml:space="preserve">Title </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtitle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point of Contact </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language </t>
-  </si>
-  <si>
     <t>Dutch; English</t>
   </si>
   <si>
-    <t xml:space="preserve">Contributor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funding Information </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depositor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deposit Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Collection </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Type </t>
-  </si>
-  <si>
     <t>Youth CLIMATE: DATA</t>
   </si>
   <si>
-    <t>Anouk Smeekes (Utrecht University) - [ORCID]()</t>
-  </si>
-  <si>
-    <t>Andrik Becht (Utrecht University) - [ORCID]()</t>
-  </si>
-  <si>
-    <t>Cansel Karakas Ozden (Utrecht University) - [ORCID]()</t>
-  </si>
-  <si>
     <t>Youth CLIMATE</t>
-  </si>
-  <si>
-    <t>Climate emotions, Lifestyle, Identity, Mental health, and Actions for a Thriving Environment</t>
-  </si>
-  <si>
-    <t>[name](email@uu.nl) (Utrecht University)</t>
   </si>
   <si>
     <t>The Youth CLIMATE Project (Climate emotions, Lifestyle, Identity, Mental health, and Actions for
@@ -117,15 +60,6 @@
     <t>pro-environmental behaviors</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Production Date</t>
-  </si>
-  <si>
-    <t>Production Location</t>
-  </si>
-  <si>
     <t>2024-05-01</t>
   </si>
   <si>
@@ -153,30 +87,9 @@
     <t>survey data, questionnaires</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>SOCIAL SCIENCES &amp; HUMANITIES METADATA</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit of Analysis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Method </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling Procedure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection Mode </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of Research Instrument </t>
-  </si>
-  <si>
     <t>longitudinal</t>
   </si>
   <si>
@@ -192,13 +105,166 @@
     <t>questionnare</t>
   </si>
   <si>
-    <t>Data Collector</t>
-  </si>
-  <si>
     <t>individuals; young people between 12 &amp; 25 years of age</t>
   </si>
   <si>
     <t>annual; 3x waves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Title** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Subtitle** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Author**   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Point of Contact** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Description** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Subject** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Keyword**   </t>
+  </si>
+  <si>
+    <t>**Notes**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Language** </t>
+  </si>
+  <si>
+    <t>**Production Location**</t>
+  </si>
+  <si>
+    <t>**Production Date**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Contributor** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Funding Information** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Depositor** </t>
+  </si>
+  <si>
+    <t>**Deposit Date**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Date of Collection** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Data Type** </t>
+  </si>
+  <si>
+    <t>**Series**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Unit of Analysis** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Time Method** </t>
+  </si>
+  <si>
+    <t>**Data Collector**</t>
+  </si>
+  <si>
+    <t>**Frequency**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Sampling Procedure** </t>
+  </si>
+  <si>
+    <t>**Collection Mode**</t>
+  </si>
+  <si>
+    <t>**Type of Research Instrument**</t>
+  </si>
+  <si>
+    <t>Anouk Smeekes (Utrecht University) - [ORCID](https://orcid.org/0000-0001-7726-837X)</t>
+  </si>
+  <si>
+    <t>Andrik Becht (Utrecht University) - [ORCID](https://orcid.org/0000-0002-1438-9550)</t>
+  </si>
+  <si>
+    <t>Cansel Karakas Ozden (Utrecht University) - [ORCID](https://orcid.org/0000-0002-2388-1205)</t>
+  </si>
+  <si>
+    <t>[Cansel Karakas Ozden](c.karakasozden@uu.nl) (Utrecht University)</t>
+  </si>
+  <si>
+    <t>Youth and Climate emotions, Lifestyle, Identity, Mental health, and Actions for a Thriving Environment</t>
+  </si>
+  <si>
+    <t>**Measurements**</t>
+  </si>
+  <si>
+    <t>Climate Change Beliefs</t>
+  </si>
+  <si>
+    <t>Perceived Climate Change Threat</t>
+  </si>
+  <si>
+    <t>Environmental Efficacy</t>
+  </si>
+  <si>
+    <t>National Environmental Efficacy</t>
+  </si>
+  <si>
+    <t>Environmental Identity</t>
+  </si>
+  <si>
+    <t>Emotional Reactions to Climate Change / Climate Change Feelings</t>
+  </si>
+  <si>
+    <t>Climate Hope &amp; Anxiety (Affect)</t>
+  </si>
+  <si>
+    <t>Pro-Environmental Behaviour</t>
+  </si>
+  <si>
+    <t>Social Norms</t>
+  </si>
+  <si>
+    <t>Collective Climate Action Intentions</t>
+  </si>
+  <si>
+    <t>Self-Concept Clarity</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Climate Anxiety &amp; Depression Symptoms/Disorder</t>
+  </si>
+  <si>
+    <t>Life Satisfaction</t>
+  </si>
+  <si>
+    <t>Mental Health Continuum</t>
+  </si>
+  <si>
+    <t>Behavioral Problems &amp; Strengths</t>
+  </si>
+  <si>
+    <t>Inclusion of Nature Self</t>
+  </si>
+  <si>
+    <t>Exploration and Commitment for Sustainable Environmental Lifestyle Formation (ECO-SELF)</t>
+  </si>
+  <si>
+    <t>Coping Strategies</t>
+  </si>
+  <si>
+    <t>General Trust in Institutions</t>
+  </si>
+  <si>
+    <t>OVERVIEW OF MEASUREMENTS</t>
   </si>
 </sst>
 </file>
@@ -242,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -268,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,9 +618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -561,7 +632,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -572,238 +643,346 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
+      <c r="A5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>31</v>
+      <c r="A18" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
+      <c r="A22" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
+      <c r="A23" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
+      <c r="A24" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/posts/youth-climate/youth-climate.xlsx
+++ b/posts/youth-climate/youth-climate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/youth-climate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9201048-EC84-4B93-8A4E-B189456C3B4F}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2942BB4-3DCD-4430-A29A-74519030BD59}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="105" windowWidth="14610" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>Youth CLIMATE</t>
   </si>
   <si>
-    <t>The Youth CLIMATE Project (Climate emotions, Lifestyle, Identity, Mental health, and Actions for
-a Thriving Environment) consists of a cohort sequential design to assess the development of
-climate change related mental health, pro-environmental engagement, and emotions across
-adolescence into young adulthood. (2025-06-19)</t>
-  </si>
-  <si>
     <t>Social Sciences</t>
   </si>
   <si>
@@ -265,6 +259,9 @@
   </si>
   <si>
     <t>OVERVIEW OF MEASUREMENTS</t>
+  </si>
+  <si>
+    <t>The Youth CLIMATE Project (Climate emotions, Lifestyle, Identity, Mental health, and Actions for a Thriving Environment) consists of a cohort sequential design to assess the development of climate change related mental health, pro-environmental engagement, and emotions across adolescence into young adulthood. (2025-06-19)</t>
   </si>
 </sst>
 </file>
@@ -620,369 +617,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A33"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/posts/youth-climate/youth-climate.xlsx
+++ b/posts/youth-climate/youth-climate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/youth-climate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2942BB4-3DCD-4430-A29A-74519030BD59}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56170EBB-8FCA-44A7-BD8A-CA6363DB251E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>CITATION METADATA</t>
   </si>
@@ -102,9 +102,6 @@
     <t>individuals; young people between 12 &amp; 25 years of age</t>
   </si>
   <si>
-    <t>annual; 3x waves</t>
-  </si>
-  <si>
     <t xml:space="preserve">**Title** </t>
   </si>
   <si>
@@ -262,6 +259,12 @@
   </si>
   <si>
     <t>The Youth CLIMATE Project (Climate emotions, Lifestyle, Identity, Mental health, and Actions for a Thriving Environment) consists of a cohort sequential design to assess the development of climate change related mental health, pro-environmental engagement, and emotions across adolescence into young adulthood. (2025-06-19)</t>
+  </si>
+  <si>
+    <t>annual; 2x waves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(climate change-related) mental health </t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -335,6 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,377 +619,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
